--- a/lab1/distance_calibration_sheet.xlsx
+++ b/lab1/distance_calibration_sheet.xlsx
@@ -1,58 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="169" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="169"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>3262.1559541885*x^-.8663161697</t>
+  </si>
+  <si>
+    <r>
+      <t>y = 3E-13x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 5E-10x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 4E-07x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 0.0002x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 0.0387x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 4.8055x + 284.35</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
+      <vertAlign val="superscript"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,7 +165,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -72,45 +173,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -169,31 +245,53 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9455353887219139E-2"/>
+          <c:y val="0"/>
+          <c:w val="0.95054464611278089"/>
+          <c:h val="0.94008483335692195"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:marker/>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$76</c:f>
+              <c:f>Sheet1!$C$1:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
@@ -665,102 +763,693 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="6490587"/>
-        <c:axId val="21976897"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="93687744"/>
+        <c:axId val="93688320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6490587"/>
+        <c:axId val="93687744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21976897"/>
+        <c:crossAx val="93688320"/>
         <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21976897"/>
+        <c:axId val="93688320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="6490587"/>
+        <c:crossAx val="93687744"/>
         <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:spPr/>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20731057229214858"/>
+          <c:y val="6.0290690054973881E-2"/>
+          <c:w val="0.72435815127425618"/>
+          <c:h val="0.85986754562656409"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="49487872"/>
+        <c:axId val="93691200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49487872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93691200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93691200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49487872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>677092</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>89263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>384120</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>781449</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>58603</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2663640" y="7712640"/>
-        <a:ext cx="7899840" cy="4955400"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -770,644 +1459,960 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122156</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>77857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137868</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>164943</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F95"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A45" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B45" activeCellId="0" pane="topLeft" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="2" max="2" width="11.5546875"/>
+    <col min="4" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="n">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>502</v>
+      </c>
+      <c r="C1">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>487</v>
+      </c>
+      <c r="C2">
         <v>8.5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>487</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>473</v>
+      </c>
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>473</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>460</v>
+      </c>
+      <c r="C4">
         <v>9.5</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>444</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>429</v>
+      </c>
+      <c r="C6">
         <v>10.5</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>429</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>414</v>
+      </c>
+      <c r="C7">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>414</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8">
         <v>11.5</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>390</v>
+      </c>
+      <c r="C9">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>377</v>
+      </c>
+      <c r="C10">
         <v>12.5</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>377</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>362</v>
+      </c>
+      <c r="C11">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>362</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>351</v>
+      </c>
+      <c r="C12">
         <v>13.5</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>351</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>340</v>
+      </c>
+      <c r="C13">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>327</v>
+      </c>
+      <c r="C14">
         <v>14.5</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>327</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15">
         <v>15</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>309</v>
+      </c>
+      <c r="C16">
         <v>15.5</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>309</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>293</v>
+      </c>
+      <c r="C18">
         <v>16.5</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>293</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>286</v>
+      </c>
+      <c r="C19">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>286</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>279</v>
+      </c>
+      <c r="C20">
         <v>17.5</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>270</v>
+      </c>
+      <c r="C21">
         <v>18</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>262</v>
+      </c>
+      <c r="C22">
         <v>18.5</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>254</v>
+      </c>
+      <c r="C23">
         <v>19</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>254</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>250</v>
+      </c>
+      <c r="C24">
         <v>19.5</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>243</v>
+      </c>
+      <c r="C25">
         <v>20</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>239</v>
+      </c>
+      <c r="C26">
         <v>20.5</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>239</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="n">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>235</v>
+      </c>
+      <c r="C27">
         <v>21</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="n">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>232</v>
+      </c>
+      <c r="C28">
         <v>21.5</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>232</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="n">
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>226</v>
+      </c>
+      <c r="C29">
         <v>22</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>226</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="n">
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>219</v>
+      </c>
+      <c r="C30">
         <v>22.5</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="n">
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>216</v>
+      </c>
+      <c r="C31">
         <v>23</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>216</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="n">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>212</v>
+      </c>
+      <c r="C32">
         <v>23.5</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="n">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>207</v>
+      </c>
+      <c r="C33">
         <v>24</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="n">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>203</v>
+      </c>
+      <c r="C34">
         <v>24.5</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="n">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>199</v>
+      </c>
+      <c r="C35">
         <v>25</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>199</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="n">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>195</v>
+      </c>
+      <c r="C36">
         <v>25.5</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="n">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>191</v>
+      </c>
+      <c r="C37">
         <v>26</v>
       </c>
-      <c r="B37" s="0" t="n">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>191</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="n">
+      <c r="C38">
         <v>26.5</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="n">
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>188</v>
+      </c>
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="n">
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>184</v>
+      </c>
+      <c r="C40">
         <v>27.5</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="n">
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>179</v>
+      </c>
+      <c r="C41">
         <v>28</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="n">
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>176</v>
+      </c>
+      <c r="C42">
         <v>28.5</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="n">
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>175</v>
+      </c>
+      <c r="C43">
         <v>29</v>
       </c>
-      <c r="B43" s="0" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="n">
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>172</v>
+      </c>
+      <c r="C44">
         <v>29.5</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>172</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="n">
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>169</v>
+      </c>
+      <c r="C45">
         <v>30</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="n">
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>168</v>
+      </c>
+      <c r="C46">
         <v>30.5</v>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="n">
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>165</v>
+      </c>
+      <c r="C47">
         <v>31</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="n">
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>164</v>
+      </c>
+      <c r="C48">
         <v>31.5</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="n">
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>160</v>
+      </c>
+      <c r="C49">
         <v>32</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="n">
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>156</v>
+      </c>
+      <c r="C50">
         <v>32.5</v>
       </c>
-      <c r="B50" s="0" t="n">
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>156</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="n">
+      <c r="C51">
         <v>33</v>
       </c>
-      <c r="B51" s="0" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="n">
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>152</v>
+      </c>
+      <c r="C52">
         <v>33.5</v>
       </c>
-      <c r="B52" s="0" t="n">
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>152</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="n">
+      <c r="C53">
         <v>34</v>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="n">
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>151</v>
+      </c>
+      <c r="C54">
         <v>34.5</v>
       </c>
-      <c r="B54" s="0" t="n">
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>151</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="n">
+      <c r="C55">
         <v>35</v>
       </c>
-      <c r="B55" s="0" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="n">
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>148</v>
+      </c>
+      <c r="C56">
         <v>35.5</v>
       </c>
-      <c r="B56" s="0" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="n">
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>147</v>
+      </c>
+      <c r="C57">
         <v>36</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="n">
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>143</v>
+      </c>
+      <c r="C58">
         <v>36.5</v>
       </c>
-      <c r="B58" s="0" t="n">
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>143</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
-      <c r="A59" s="0" t="n">
+      <c r="C59">
         <v>37</v>
       </c>
-      <c r="B59" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
-      <c r="A60" s="0" t="n">
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>140</v>
+      </c>
+      <c r="C60">
         <v>37.5</v>
       </c>
-      <c r="B60" s="0" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
-      <c r="A61" s="0" t="n">
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>139</v>
+      </c>
+      <c r="C61">
         <v>38</v>
       </c>
-      <c r="B61" s="0" t="n">
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>139</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
-      <c r="A62" s="0" t="n">
+      <c r="C62">
         <v>38.5</v>
       </c>
-      <c r="B62" s="0" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="n">
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>135</v>
+      </c>
+      <c r="C63">
         <v>39</v>
       </c>
-      <c r="B63" s="0" t="n">
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>135</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
-      <c r="A64" s="0" t="n">
+      <c r="C64">
         <v>39.5</v>
       </c>
-      <c r="B64" s="0" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
-      <c r="A65" s="0" t="n">
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>131</v>
+      </c>
+      <c r="C65">
         <v>40</v>
       </c>
-      <c r="B65" s="0" t="n">
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>131</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
-      <c r="A66" s="0" t="n">
+      <c r="C66">
         <v>40.5</v>
       </c>
-      <c r="B66" s="0" t="n">
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>131</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
-      <c r="A67" s="0" t="n">
+      <c r="C67">
         <v>41</v>
       </c>
-      <c r="B67" s="0" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="n">
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>127</v>
+      </c>
+      <c r="C68">
         <v>42</v>
       </c>
-      <c r="B68" s="0" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
-      <c r="A69" s="0" t="n">
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>123</v>
+      </c>
+      <c r="C69">
         <v>44</v>
       </c>
-      <c r="B69" s="0" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
-      <c r="A70" s="0" t="n">
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>115</v>
+      </c>
+      <c r="C70">
         <v>46</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
-      <c r="A71" s="0" t="n">
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>112</v>
+      </c>
+      <c r="C71">
         <v>48</v>
       </c>
-      <c r="B71" s="0" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
-      <c r="A72" s="0" t="n">
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>107</v>
+      </c>
+      <c r="C72">
         <v>50</v>
       </c>
-      <c r="B72" s="0" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
-      <c r="A73" s="0" t="n">
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>104</v>
+      </c>
+      <c r="C73">
         <v>52</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
-      <c r="A74" s="0" t="n">
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
         <v>56</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
-      <c r="A75" s="0" t="n">
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>99</v>
+      </c>
+      <c r="C75">
         <v>60</v>
       </c>
-      <c r="B75" s="0" t="n">
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>99</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
-      <c r="A76" s="0" t="n">
+      <c r="C76">
         <v>64</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
-      <c r="A78" s="0" t="s">
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="95" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F95" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
